--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -94,10 +94,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +436,8 @@
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -585,67 +603,167 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.27937694054428702</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.60275650842266404</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.36644257364549299</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.24014829171520699</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.208048760085116</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.59738392985482203</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.48017345365107E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.7420922713683101E-2</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.30696696467665502</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.51244991413852303</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.17150898399828399</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8.7312640224065E-2</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>0.12921394930621799</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.74752261956053401</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.38967987356399E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.5346382720992397E-2</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.255303469834124</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.60826952526799305</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.38836937661933102</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.24176920659815601</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>DF1</t>
   </si>
@@ -88,12 +88,39 @@
   </si>
   <si>
     <t>KMedoid Cantidad Optimo</t>
+  </si>
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Indice Cofenetico</t>
+  </si>
+  <si>
+    <t>Rand MaxClust 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice Rand Dist Cant Clusters </t>
+  </si>
+  <si>
+    <t>Indice Rand Distance</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>euclidea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,11 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,9 +461,9 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
@@ -749,7 +777,9 @@
       <c r="H14" s="1">
         <v>0.24176920659815601</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -760,6 +790,170 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.625667903586</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.0339369652909003E-4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.8923346526635104E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.67914832900698097</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.8496593847128799E-4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.16786669924672E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.62696867077538998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4.5421215857999997E-5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.93636861092818E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.69966714108047501</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.2227911394587999E-4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.6595291814487399E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.626671566854476</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4.6039562690700097E-4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4.3567739411282E-4</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -772,7 +966,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>DF1</t>
   </si>
@@ -102,16 +102,13 @@
     <t>Rand MaxClust 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice Rand Dist Cant Clusters </t>
-  </si>
-  <si>
-    <t>Indice Rand Distance</t>
-  </si>
-  <si>
     <t>Distancia</t>
   </si>
   <si>
     <t>euclidea</t>
+  </si>
+  <si>
+    <t>FALTA OPTIMO</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,19 +796,16 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -825,20 +819,15 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2">
         <v>0.625667903586</v>
       </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5.0339369652909003E-4</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F18" s="2">
         <v>5.8923346526635104E-4</v>
       </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -851,20 +840,15 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1">
         <v>0.67914832900698097</v>
       </c>
-      <c r="F19" s="2">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5.8496593847128799E-4</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1">
         <v>1.16786669924672E-3</v>
       </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -877,20 +861,15 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
         <v>0.62696867077538998</v>
       </c>
       <c r="F20" s="2">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4.5421215857999997E-5</v>
-      </c>
-      <c r="H20" s="2">
         <v>1.93636861092818E-4</v>
       </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -903,20 +882,15 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3">
         <v>0.69966714108047501</v>
       </c>
-      <c r="F21" s="2">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3.2227911394587999E-4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="F21" s="3">
         <v>4.6595291814487399E-4</v>
       </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -929,20 +903,15 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2">
         <v>0.626671566854476</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4.6039562690700097E-4</v>
-      </c>
-      <c r="H22" s="2">
         <v>4.3567739411282E-4</v>
       </c>
+      <c r="G22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">

--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>DF1</t>
   </si>
@@ -140,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,12 +166,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,8 +460,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +469,7 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
@@ -510,7 +521,7 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>0.36547301851976599</v>
       </c>
       <c r="H2">
@@ -556,10 +567,10 @@
       <c r="C4">
         <v>5.6987562832170498E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.34403501421051103</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.51244991413852303</v>
       </c>
       <c r="F4">
@@ -599,31 +610,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>4.7305789346318503E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.26330483408872302</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.60826952526799305</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0.38897930358305799</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.24084520721080999</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -647,7 +658,9 @@
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -666,7 +679,7 @@
       <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <v>0.36644257364549299</v>
       </c>
       <c r="H10" s="2">
@@ -709,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>0.30696696467665502</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>0.51244991413852303</v>
       </c>
       <c r="F12" s="2">
@@ -737,7 +750,7 @@
       <c r="D13" s="3">
         <v>0.12921394930621799</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>0.74752261956053401</v>
       </c>
       <c r="F13" s="2">
@@ -752,29 +765,29 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
         <v>0.255303469834124</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>0.60826952526799305</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="6">
         <v>0.38836937661933102</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="8">
         <v>0.24176920659815601</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -884,7 +897,7 @@
       <c r="D21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>0.69966714108047501</v>
       </c>
       <c r="F21" s="3">

--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>DF1</t>
   </si>
@@ -108,7 +108,13 @@
     <t>euclidea</t>
   </si>
   <si>
-    <t>FALTA OPTIMO</t>
+    <t>Rand Optimo</t>
+  </si>
+  <si>
+    <t>Cant Clust Optimo</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -116,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +141,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,17 +178,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,8 +558,8 @@
       <c r="C3">
         <v>7.2871949160253302E-2</v>
       </c>
-      <c r="D3">
-        <v>0.28914832834422899</v>
+      <c r="D3" t="s">
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0.59738392985482203</v>
@@ -801,7 +818,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,8 +837,11 @@
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -837,12 +857,18 @@
       <c r="E18" s="2">
         <v>0.625667903586</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>5.8923346526635104E-4</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="10">
+        <v>2.539E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12</v>
+      </c>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -861,9 +887,15 @@
       <c r="F19" s="1">
         <v>1.16786669924672E-3</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="11">
+        <v>1.16786669924672E-3</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -882,9 +914,15 @@
       <c r="F20" s="2">
         <v>1.93636861092818E-4</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -897,15 +935,21 @@
       <c r="D21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="13">
         <v>0.69966714108047501</v>
       </c>
       <c r="F21" s="3">
         <v>4.6595291814487399E-4</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>1.4679999999999999E-3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -924,10 +968,16 @@
       <c r="F22" s="2">
         <v>4.3567739411282E-4</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="14">
+        <v>0.15646399999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10</v>
+      </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Jose\Documents\Maestria 2020\Data Mining Ciencia y Tecnologia\TP 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferreyra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
   <si>
     <t>DF1</t>
   </si>
@@ -115,6 +115,87 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Mal clasificados</t>
+  </si>
+  <si>
+    <t>Bien clasificados</t>
+  </si>
+  <si>
+    <t>KMEANS</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singer-songwriter  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drum-and-bass      </t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>ska</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>ambient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classical          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">death-metal        </t>
+  </si>
+  <si>
+    <t>trance</t>
+  </si>
+  <si>
+    <t>KMEDOID</t>
+  </si>
+  <si>
+    <t>JERARQUICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient            </t>
+  </si>
+  <si>
+    <t>Experiencia</t>
+  </si>
+  <si>
+    <t>Dataframe</t>
+  </si>
+  <si>
+    <t>Mal Clasificados</t>
+  </si>
+  <si>
+    <t>Bien Clasificados</t>
+  </si>
+  <si>
+    <t>Generos</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jazz               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trance             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opera              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ska                </t>
   </si>
 </sst>
 </file>
@@ -124,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +232,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,11 +269,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,6 +385,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +722,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,14 +1240,1090 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="J1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>2</v>
+      </c>
+      <c r="H2" s="15">
+        <v>3</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="26"/>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="24"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="24"/>
+      <c r="K20" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="24"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="24"/>
+      <c r="K23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="24"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="24"/>
+      <c r="K26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="24"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="24"/>
+      <c r="K29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="27"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="24"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="24"/>
+      <c r="K35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="24"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="24"/>
+      <c r="K38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="24"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="24"/>
+      <c r="K41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="24"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="24"/>
+      <c r="K44" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="24"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="27"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="33"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="33"/>
+      <c r="K48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J49" s="33"/>
+      <c r="K49" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="36">
+        <f>COUNTIF(L2:L46,"jazz")</f>
+        <v>9</v>
+      </c>
+      <c r="M49" s="18">
+        <f>COUNTIF(M2:M46,"jazz")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="33"/>
+      <c r="K50" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="18">
+        <f>COUNTIF(L2:L46,"death-metal")</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <f>COUNTIF(M2:M46,"death-metal")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J51" s="33"/>
+      <c r="K51" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="18">
+        <f>COUNTIF(L2:L46,"singer-songwriter")</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="18">
+        <f>COUNTIF(M2:M46,"singer-songwriter")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J52" s="33"/>
+      <c r="K52" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="18">
+        <f>COUNTIF(L2:L46,"drum-and-bass")</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="18">
+        <f>COUNTIF(M2:M46,"drum-and-bass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J53" s="33"/>
+      <c r="K53" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="18">
+        <f>COUNTIF(L2:L46,"trance")</f>
+        <v>2</v>
+      </c>
+      <c r="M53" s="18">
+        <f>COUNTIF(M2:M46,"trance")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J54" s="33"/>
+      <c r="K54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" s="36">
+        <f>COUNTIF(L2:L46,"ambient")</f>
+        <v>4</v>
+      </c>
+      <c r="M54" s="18">
+        <f>COUNTIF(M2:M46,"ambient")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J55" s="33"/>
+      <c r="K55" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="18">
+        <f>COUNTIF(L2:L46,"opera")</f>
+        <v>2</v>
+      </c>
+      <c r="M55" s="36">
+        <f>COUNTIF(M2:M46,"opera")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J56" s="33"/>
+      <c r="K56" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="18">
+        <f>COUNTIF(L2:L46,"classical")</f>
+        <v>2</v>
+      </c>
+      <c r="M56" s="36">
+        <f>COUNTIF(M2:M46,"classical")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J57" s="33"/>
+      <c r="K57" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" s="36">
+        <f>COUNTIF(L2:L46,"ska")</f>
+        <v>5</v>
+      </c>
+      <c r="M57" s="36">
+        <f>COUNTIF(M2:M46,"ska")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J32:J46"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="J17:J31"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J2:J16"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="60">
   <si>
     <t>DF1</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t xml:space="preserve">ska                </t>
+  </si>
+  <si>
+    <t>singer-songwriter</t>
+  </si>
+  <si>
+    <t>drum-and-bass</t>
+  </si>
+  <si>
+    <t>death-metal</t>
   </si>
 </sst>
 </file>
@@ -256,7 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,27 +409,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,14 +432,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1240,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,43 +1265,45 @@
     <col min="3" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="J1" s="20" t="s">
         <v>46</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="15">
         <v>1</v>
       </c>
@@ -1308,10 +1322,10 @@
       <c r="H2" s="15">
         <v>3</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -1346,10 +1360,10 @@
       <c r="H3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>37</v>
@@ -1380,10 +1394,10 @@
       <c r="H4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>38</v>
@@ -1414,15 +1428,15 @@
       <c r="H5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="27" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1450,13 +1464,13 @@
       <c r="H6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="18" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1484,10 +1498,10 @@
       <c r="H7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="28"/>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>42</v>
@@ -1518,15 +1532,15 @@
       <c r="H8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="27" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>37</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1554,10 +1568,10 @@
       <c r="H9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>36</v>
@@ -1588,8 +1602,8 @@
       <c r="H10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="18" t="s">
         <v>42</v>
       </c>
@@ -1622,15 +1636,15 @@
       <c r="H11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="32"/>
+      <c r="K11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1658,8 +1672,8 @@
       <c r="H12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="18" t="s">
         <v>39</v>
       </c>
@@ -1692,13 +1706,13 @@
       <c r="H13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1726,8 +1740,8 @@
       <c r="H14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="27" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="18" t="s">
@@ -1762,10 +1776,10 @@
       <c r="H15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>37</v>
@@ -1796,10 +1810,10 @@
       <c r="H16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M16" s="18" t="s">
         <v>38</v>
@@ -1830,10 +1844,10 @@
       <c r="H17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="27" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="18" t="s">
@@ -1844,28 +1858,28 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="24"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="24"/>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="32"/>
+      <c r="K20" s="27" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="18" t="s">
@@ -1876,18 +1890,18 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="24"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="18" t="s">
         <v>37</v>
       </c>
@@ -1896,20 +1910,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="24"/>
-      <c r="K23" s="23" t="s">
+      <c r="J23" s="32"/>
+      <c r="K23" s="27" t="s">
         <v>2</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="18" t="s">
         <v>37</v>
       </c>
@@ -1918,40 +1932,40 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="24"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M25" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="24"/>
-      <c r="K26" s="23" t="s">
+      <c r="J26" s="32"/>
+      <c r="K26" s="27" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="24"/>
-      <c r="K28" s="26"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="18" t="s">
         <v>38</v>
       </c>
@@ -1960,8 +1974,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="24"/>
-      <c r="K29" s="23" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="27" t="s">
         <v>4</v>
       </c>
       <c r="L29" s="18" t="s">
@@ -1972,85 +1986,85 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M30" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="27"/>
-      <c r="K31" s="26"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M31" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="22" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="28" t="s">
-        <v>34</v>
+      <c r="J33" s="32"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="M33" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="24"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="28" t="s">
-        <v>35</v>
+      <c r="J34" s="32"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="M34" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J35" s="24"/>
-      <c r="K35" s="23" t="s">
+      <c r="J35" s="32"/>
+      <c r="K35" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L35" s="28" t="s">
-        <v>34</v>
+      <c r="L35" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="28" t="s">
+      <c r="J36" s="32"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="22" t="s">
         <v>33</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J37" s="24"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="28" t="s">
+      <c r="J37" s="32"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="22" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="18" t="s">
@@ -2058,11 +2072,11 @@
       </c>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J38" s="24"/>
-      <c r="K38" s="23" t="s">
+      <c r="J38" s="32"/>
+      <c r="K38" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="M38" s="18" t="s">
@@ -2070,41 +2084,41 @@
       </c>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="28" t="s">
-        <v>34</v>
+      <c r="J39" s="32"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="M39" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J40" s="24"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="28" t="s">
-        <v>45</v>
+      <c r="J40" s="32"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J41" s="24"/>
-      <c r="K41" s="23" t="s">
+      <c r="J41" s="32"/>
+      <c r="K41" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="22" t="s">
         <v>39</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="28" t="s">
+      <c r="J42" s="32"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="22" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="18" t="s">
@@ -2112,21 +2126,21 @@
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J43" s="24"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="28" t="s">
-        <v>34</v>
+      <c r="J43" s="32"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="M43" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J44" s="24"/>
-      <c r="K44" s="30" t="s">
+      <c r="J44" s="32"/>
+      <c r="K44" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="22" t="s">
         <v>33</v>
       </c>
       <c r="M44" s="18" t="s">
@@ -2134,175 +2148,155 @@
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J45" s="24"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="28" t="s">
-        <v>41</v>
+      <c r="J45" s="32"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="M45" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J46" s="27"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="28" t="s">
-        <v>34</v>
+      <c r="J46" s="33"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="M46" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J47" s="33"/>
-      <c r="K47" s="34"/>
-    </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J48" s="33"/>
       <c r="K48" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M48" s="15" t="s">
+      <c r="M48" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J49" s="33"/>
-      <c r="K49" s="35" t="s">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K49" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="37">
         <f>COUNTIF(L2:L46,"jazz")</f>
         <v>9</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="19">
         <f>COUNTIF(M2:M46,"jazz")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J50" s="33"/>
-      <c r="K50" s="35" t="s">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K50" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="19">
         <f>COUNTIF(L2:L46,"death-metal")</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="18">
+        <v>1</v>
+      </c>
+      <c r="M50" s="37">
         <f>COUNTIF(M2:M46,"death-metal")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J51" s="33"/>
-      <c r="K51" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K51" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="37">
         <f>COUNTIF(L2:L46,"singer-songwriter")</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="18">
+        <v>12</v>
+      </c>
+      <c r="M51" s="19">
         <f>COUNTIF(M2:M46,"singer-songwriter")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J52" s="33"/>
-      <c r="K52" s="35" t="s">
+    <row r="52" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K52" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="37">
         <f>COUNTIF(L2:L46,"drum-and-bass")</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="18">
+        <v>6</v>
+      </c>
+      <c r="M52" s="19">
         <f>COUNTIF(M2:M46,"drum-and-bass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J53" s="33"/>
-      <c r="K53" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K53" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="19">
         <f>COUNTIF(L2:L46,"trance")</f>
         <v>2</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="19">
         <f>COUNTIF(M2:M46,"trance")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J54" s="33"/>
-      <c r="K54" s="35" t="s">
+    <row r="54" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K54" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="19">
         <f>COUNTIF(L2:L46,"ambient")</f>
-        <v>4</v>
-      </c>
-      <c r="M54" s="18">
+        <v>5</v>
+      </c>
+      <c r="M54" s="19">
         <f>COUNTIF(M2:M46,"ambient")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J55" s="33"/>
-      <c r="K55" s="35" t="s">
+    <row r="55" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K55" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="19">
         <f>COUNTIF(L2:L46,"opera")</f>
         <v>2</v>
       </c>
-      <c r="M55" s="36">
+      <c r="M55" s="37">
         <f>COUNTIF(M2:M46,"opera")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J56" s="33"/>
-      <c r="K56" s="35" t="s">
+    <row r="56" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K56" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="19">
         <f>COUNTIF(L2:L46,"classical")</f>
-        <v>2</v>
-      </c>
-      <c r="M56" s="36">
+        <v>3</v>
+      </c>
+      <c r="M56" s="37">
         <f>COUNTIF(M2:M46,"classical")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J57" s="33"/>
-      <c r="K57" s="35" t="s">
+    <row r="57" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K57" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L57" s="19">
         <f>COUNTIF(L2:L46,"ska")</f>
         <v>5</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="19">
         <f>COUNTIF(M2:M46,"ska")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J58" s="33"/>
-      <c r="K58" s="34"/>
-    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="J32:J46"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="K35:K37"/>
@@ -2315,14 +2309,16 @@
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="K26:K28"/>
     <mergeCell ref="K29:K31"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="J2:J16"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="K14:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ArchivosLatex/Comparativo.xlsx
+++ b/ArchivosLatex/Comparativo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferreyra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Jose\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17535" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Metodo</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>Indice Cofenetico</t>
   </si>
   <si>
@@ -205,16 +202,20 @@
   </si>
   <si>
     <t>death-metal</t>
+  </si>
+  <si>
+    <t>ward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +249,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -378,22 +385,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,18 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,16 +432,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,8 +744,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +805,7 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.36547301851976599</v>
       </c>
       <c r="H2">
@@ -816,7 +826,7 @@
         <v>7.2871949160253302E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0.59738392985482203</v>
@@ -841,10 +851,10 @@
       <c r="C4">
         <v>5.6987562832170498E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.34403501421051103</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.51244991413852303</v>
       </c>
       <c r="F4">
@@ -884,31 +894,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>4.7305789346318503E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.26330483408872302</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.60826952526799305</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.38897930358305799</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.24084520721080999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -953,7 +963,7 @@
       <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.36644257364549299</v>
       </c>
       <c r="H10" s="2">
@@ -996,10 +1006,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.30696696467665502</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>0.51244991413852303</v>
       </c>
       <c r="F12" s="2">
@@ -1024,7 +1034,7 @@
       <c r="D13" s="3">
         <v>0.12921394930621799</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.74752261956053401</v>
       </c>
       <c r="F13" s="2">
@@ -1039,29 +1049,29 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>0.255303469834124</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.60826952526799305</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.38836937661933102</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.24176920659815601</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1083,47 +1093,47 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.625667903586</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="39">
+        <v>0.44</v>
+      </c>
+      <c r="F18" s="39">
         <v>5.8923346526635104E-4</v>
       </c>
-      <c r="G18" s="10">
-        <v>2.539E-3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>12</v>
-      </c>
-      <c r="J18" s="12"/>
+      <c r="G18" s="40">
+        <v>0.31356699999999998</v>
+      </c>
+      <c r="H18" s="39">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1133,24 +1143,24 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>0.67914832900698097</v>
+        <v>0.35</v>
       </c>
       <c r="F19" s="1">
         <v>1.16786669924672E-3</v>
       </c>
-      <c r="G19" s="11">
-        <v>1.16786669924672E-3</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="J19" s="12"/>
+      <c r="G19" s="35">
+        <v>0.28569499999999998</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1160,24 +1170,24 @@
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2">
-        <v>0.62696867077538998</v>
+        <v>0.43</v>
       </c>
       <c r="F20" s="2">
         <v>1.93636861092818E-4</v>
       </c>
-      <c r="G20" s="4">
-        <v>3.3399999999999999E-4</v>
+      <c r="G20" s="34">
+        <v>0.28378199999999998</v>
       </c>
       <c r="H20" s="2">
-        <v>10</v>
-      </c>
-      <c r="J20" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1187,52 +1197,52 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0.69966714108047501</v>
+        <v>25</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.33</v>
       </c>
       <c r="F21" s="3">
         <v>4.6595291814487399E-4</v>
       </c>
-      <c r="G21" s="4">
-        <v>1.4679999999999999E-3</v>
+      <c r="G21" s="34">
+        <v>8.8568999999999995E-2</v>
       </c>
       <c r="H21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.626671566854476</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="C22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F22" s="5">
         <v>4.3567739411282E-4</v>
       </c>
-      <c r="G22" s="14">
-        <v>0.15646399999999999</v>
-      </c>
-      <c r="H22" s="2">
-        <v>10</v>
+      <c r="G22" s="37">
+        <v>0.24599399999999999</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
@@ -1240,7 +1250,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
@@ -1254,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -1265,1060 +1275,1060 @@
     <col min="3" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="J1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="M1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="J1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="15">
+      <c r="K2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15">
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
-        <v>2</v>
-      </c>
-      <c r="H2" s="15">
-        <v>3</v>
-      </c>
-      <c r="J2" s="31" t="s">
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="H7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="28"/>
       <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="18" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="18" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="27" t="s">
+      <c r="D16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="24"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="24"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="24"/>
+      <c r="K20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="24"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="24"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="24"/>
+      <c r="K23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="24"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="24"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="24"/>
+      <c r="K26" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="24"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="24"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="24"/>
+      <c r="K29" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="24"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="25"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="24"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="24"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="24"/>
+      <c r="K35" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="L35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="24"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="24"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="24"/>
+      <c r="K38" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="24"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="18" t="s">
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="24"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="M40" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="24"/>
+      <c r="K41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J42" s="24"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="18" t="s">
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="24"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="24"/>
+      <c r="K44" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="24"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="M45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="18" t="s">
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="25"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="32"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="32"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="32"/>
-      <c r="K20" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="32"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="32"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="32"/>
-      <c r="K23" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="32"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="32"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="32"/>
-      <c r="K26" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="32"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="32"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="32"/>
-      <c r="K29" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="32"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="33"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="32"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="32"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J35" s="32"/>
-      <c r="K35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" s="32"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J37" s="32"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J38" s="32"/>
-      <c r="K38" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="32"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J40" s="32"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J41" s="32"/>
-      <c r="K41" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J42" s="32"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J43" s="32"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J44" s="32"/>
-      <c r="K44" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J45" s="32"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J46" s="33"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="M48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M48" s="16" t="s">
+    </row>
+    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K49" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K49" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="L49" s="37">
+      <c r="L49" s="22">
         <f>COUNTIF(L2:L46,"jazz")</f>
         <v>9</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="14">
         <f>COUNTIF(M2:M46,"jazz")</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K50" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L50" s="19">
+      <c r="K50" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="14">
         <f>COUNTIF(L2:L46,"death-metal")</f>
         <v>1</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M50" s="22">
         <f>COUNTIF(M2:M46,"death-metal")</f>
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K51" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="37">
+      <c r="K51" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="22">
         <f>COUNTIF(L2:L46,"singer-songwriter")</f>
         <v>12</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="14">
         <f>COUNTIF(M2:M46,"singer-songwriter")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K52" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L52" s="37">
+      <c r="K52" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="22">
         <f>COUNTIF(L2:L46,"drum-and-bass")</f>
         <v>6</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="14">
         <f>COUNTIF(M2:M46,"drum-and-bass")</f>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K53" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L53" s="19">
+      <c r="K53" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="14">
         <f>COUNTIF(L2:L46,"trance")</f>
         <v>2</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="14">
         <f>COUNTIF(M2:M46,"trance")</f>
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K54" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="L54" s="19">
+      <c r="K54" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="14">
         <f>COUNTIF(L2:L46,"ambient")</f>
         <v>5</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="14">
         <f>COUNTIF(M2:M46,"ambient")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="19">
+      <c r="K55" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="14">
         <f>COUNTIF(L2:L46,"opera")</f>
         <v>2</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="22">
         <f>COUNTIF(M2:M46,"opera")</f>
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K56" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L56" s="19">
+      <c r="K56" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="14">
         <f>COUNTIF(L2:L46,"classical")</f>
         <v>3</v>
       </c>
-      <c r="M56" s="37">
+      <c r="M56" s="22">
         <f>COUNTIF(M2:M46,"classical")</f>
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K57" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L57" s="19">
+      <c r="K57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="14">
         <f>COUNTIF(L2:L46,"ska")</f>
         <v>5</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M57" s="14">
         <f>COUNTIF(M2:M46,"ska")</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J2:J16"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J17:J31"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K31"/>
     <mergeCell ref="J32:J46"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="K35:K37"/>
     <mergeCell ref="K38:K40"/>
     <mergeCell ref="K41:K43"/>
     <mergeCell ref="K44:K46"/>
-    <mergeCell ref="J17:J31"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="J2:J16"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
